--- a/.research/.original-research/1699-claim/data/S/land-grants/geolocation/analysis/mapping_workflow/grant_coordinates_summary.xlsx
+++ b/.research/.original-research/1699-claim/data/S/land-grants/geolocation/analysis/mapping_workflow/grant_coordinates_summary.xlsx
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36.8953677, -76.7248143</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.9140592, -76.9326385</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.744783, -77.4464165</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36.8953677, -76.7248143</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.4974701, -76.9990453</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1118778, -76.895924</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>38.4672023, -77.8625035</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.744783, -77.4464165</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1118778, -76.895924</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.4437158, -79.163737</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36.601755, -76.9789759</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36.8953677, -76.7248143</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.8008971, -77.6386892</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.8846135, -77.5365495</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.5131191, -77.3465081</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>36.8953677, -76.7248143</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>37.1232245, -78.4927721</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
